--- a/tsse_data/toc_spreadsheet_1.xlsx
+++ b/tsse_data/toc_spreadsheet_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianbillinge/dev/tsse_data/tsse_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B748CCE-AD06-A340-B58C-781334F6ACB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3208D289-BCBD-6A46-8272-8A1211EF8B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
   <si>
     <t>sample</t>
   </si>
@@ -40,29 +40,53 @@
     <t>m_water</t>
   </si>
   <si>
-    <t>TOC1_raw</t>
-  </si>
-  <si>
-    <t>TOC2_raw</t>
-  </si>
-  <si>
-    <t>TOC_raw</t>
-  </si>
-  <si>
-    <t>dTOC_raw</t>
-  </si>
-  <si>
-    <t>dipa</t>
-  </si>
-  <si>
     <t>o</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t>2a</t>
+  </si>
+  <si>
+    <t>3a</t>
+  </si>
+  <si>
+    <t>4a</t>
+  </si>
+  <si>
+    <t>6a</t>
+  </si>
+  <si>
+    <t>7a</t>
+  </si>
+  <si>
+    <t>8a</t>
+  </si>
+  <si>
+    <t>9a</t>
+  </si>
+  <si>
+    <t>10a</t>
+  </si>
+  <si>
+    <t>toc_raw</t>
+  </si>
+  <si>
+    <t>dtoc_raw</t>
+  </si>
+  <si>
+    <t>toc1_raw</t>
+  </si>
+  <si>
+    <t>toc2_raw</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +98,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Avenir"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -112,11 +142,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,15 +450,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,69 +478,501 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="14" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
       <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="C2" s="2">
+        <v>25</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="I2">
-        <v>101.15</v>
-      </c>
-      <c r="J2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
+      <c r="E2" s="2">
+        <v>2.58E-2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>38.979900000000001</v>
+      </c>
+      <c r="I2" s="2">
+        <v>43980</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="16">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>15</v>
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>25</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
-      <c r="I3">
-        <v>94</v>
-      </c>
-      <c r="J3">
-        <v>90</v>
-      </c>
+      <c r="E3" s="2">
+        <v>3.4299999999999997E-2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>40.060499999999998</v>
+      </c>
+      <c r="I3" s="2">
+        <v>59279</v>
+      </c>
+      <c r="J3" s="2">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="16">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>37.160400000000003</v>
+      </c>
+      <c r="I4" s="2">
+        <v>97568</v>
+      </c>
+      <c r="J4" s="2">
+        <v>5156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4.6800000000000001E-2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>35.4497</v>
+      </c>
+      <c r="I5" s="2">
+        <v>68760</v>
+      </c>
+      <c r="J5" s="2">
+        <v>4438</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>6.2399999999999997E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>36.942300000000003</v>
+      </c>
+      <c r="I6" s="2">
+        <v>83242</v>
+      </c>
+      <c r="J6" s="2">
+        <v>4578</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6.3700000000000007E-2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>37.533700000000003</v>
+      </c>
+      <c r="I7" s="2">
+        <v>93420</v>
+      </c>
+      <c r="J7" s="2">
+        <v>6094</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>8.2900000000000001E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>37.2393</v>
+      </c>
+      <c r="I8" s="2">
+        <v>64822</v>
+      </c>
+      <c r="J8" s="2">
+        <v>4988</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>37.689100000000003</v>
+      </c>
+      <c r="I9" s="2">
+        <v>64983</v>
+      </c>
+      <c r="J9" s="2">
+        <v>4576</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="F10" s="2">
+        <v>37.704599999999999</v>
+      </c>
+      <c r="I10" s="2">
+        <v>15478</v>
+      </c>
+      <c r="J10" s="2">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="16">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.1065</v>
+      </c>
+      <c r="F11" s="2">
+        <v>38.928600000000003</v>
+      </c>
+      <c r="I11" s="2">
+        <v>12915</v>
+      </c>
+      <c r="J11" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>39.235700000000001</v>
+      </c>
+      <c r="I12" s="2">
+        <v>8877</v>
+      </c>
+      <c r="J12" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="16">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2">
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" s="2">
+        <v>8.3199999999999996E-2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>37.459499999999998</v>
+      </c>
+      <c r="I13" s="2">
+        <v>8856</v>
+      </c>
+      <c r="J13" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="16">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2">
+        <v>25</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>37.1188</v>
+      </c>
+      <c r="I14" s="2">
+        <v>23642</v>
+      </c>
+      <c r="J14" s="2">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="16">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2">
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>8.1199999999999994E-2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>38.4801</v>
+      </c>
+      <c r="I15" s="2">
+        <v>22422</v>
+      </c>
+      <c r="J15" s="2">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="16">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2">
+        <v>25</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>8.4599999999999995E-2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>36.2864</v>
+      </c>
+      <c r="I16" s="2">
+        <v>8413</v>
+      </c>
+      <c r="J16" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="16">
+      <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>8.2600000000000007E-2</v>
+      </c>
+      <c r="F17" s="2">
+        <v>36.630899999999997</v>
+      </c>
+      <c r="I17" s="2">
+        <v>7763</v>
+      </c>
+      <c r="J17" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="16">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2">
+        <v>25</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>9.4399999999999998E-2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>36.568199999999997</v>
+      </c>
+      <c r="I18" s="2">
+        <v>58</v>
+      </c>
+      <c r="J18" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="16">
+      <c r="A19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="2">
+        <v>25</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>8.7099999999999997E-2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>36.627099999999999</v>
+      </c>
+      <c r="I19" s="2">
+        <v>36</v>
+      </c>
+      <c r="J19" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="16">
+      <c r="A20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" ht="16">
+      <c r="A21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
